--- a/biology/Botanique/Counoise/Counoise.xlsx
+++ b/biology/Botanique/Counoise/Counoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La counoise est un cépage noir utilisé dans le sud de la France, parfois confondu avec l'aubun.
@@ -512,11 +524,13 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage serait originaire d'Espagne, offert au pape Urbain V — alors pape à Avignon — par un vice-légat nommé Counesa[1].
-La counoise fait notamment partie de l'encépagement des appellations Côtes du Rhône, Châteauneuf du Pape, Gigondas, Vacqueyras, Rasteau, Ventoux, Luberon, les Baux-de-Provence, Coteaux d'Aix-en-Provence, Coteaux de Saint-Christol, Cabrières, Coteaux de Vérargues, Languedoc, Collioure, Montpeyroux, Pic-Saint-Loup, Saint-Drézéry, Saint-Georges-d'Orques et Saint-Saturnin[1].
-Ce cépage était cultivé sur environ 500 ha en 2006[2]. Il existe deux clones en matériel certifié, portant les numéros 508 et 725. Un conservatoire d'une dizaine de clones a été implanté dans les Côtes du Rhône (Vaucluse) en 2001.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage serait originaire d'Espagne, offert au pape Urbain V — alors pape à Avignon — par un vice-légat nommé Counesa.
+La counoise fait notamment partie de l'encépagement des appellations Côtes du Rhône, Châteauneuf du Pape, Gigondas, Vacqueyras, Rasteau, Ventoux, Luberon, les Baux-de-Provence, Coteaux d'Aix-en-Provence, Coteaux de Saint-Christol, Cabrières, Coteaux de Vérargues, Languedoc, Collioure, Montpeyroux, Pic-Saint-Loup, Saint-Drézéry, Saint-Georges-d'Orques et Saint-Saturnin.
+Ce cépage était cultivé sur environ 500 ha en 2006. Il existe deux clones en matériel certifié, portant les numéros 508 et 725. Un conservatoire d'une dizaine de clones a été implanté dans les Côtes du Rhône (Vaucluse) en 2001.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourgeonnement cotonneux blanc à pointe carminé.
 Feuilles adultes grandes, épaisses, à 5 lobes, très bullées voire gaufrées, orbiculaires, à larges dents ogivales. Forte densité de poils couchés sur la face inférieure du limbe.
@@ -581,7 +597,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Époque de débourrement : 12 jours après le chasselas B.
 Époque de maturité : 2e époque, 31/2 à 4 semaines après le chasselas
@@ -615,10 +633,12 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grappes sont moyennes, à grosses baies. La counoise permet d'obtenir des vins fruités, flatteurs, mais peu colorés[3].
-La structure tannique de ces vins est fine, avec un équilibre alcool/acide intéressant[4]. Ses arômes sont complexes (arômes épicés, ou même floraux sur une base fruitée).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grappes sont moyennes, à grosses baies. La counoise permet d'obtenir des vins fruités, flatteurs, mais peu colorés.
+La structure tannique de ces vins est fine, avec un équilibre alcool/acide intéressant. Ses arômes sont complexes (arômes épicés, ou même floraux sur une base fruitée).
 Le profil aromatique de ce cépage apporte une complexité intéressante en assemblages.
 </t>
         </is>
@@ -648,10 +668,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage était autrefois connu sous le nom de Moustardier dans les vieux vignobles de Châteauneuf-du-Pape et de Tavel.
-Dans certains pays, il est synonyme de l'Aubun même si ces deux cépages sont bien distincts[5].
+Dans certains pays, il est synonyme de l'Aubun même si ces deux cépages sont bien distincts.
 </t>
         </is>
       </c>
@@ -680,9 +702,11 @@
           <t>Type de vin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toujours vinifié en assemblage, ce cépage apporte finesse, souplesse et fruité. Ces vins à la robe profonde et brillante dégagent des arômes d'épices, de prune et de mûre[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours vinifié en assemblage, ce cépage apporte finesse, souplesse et fruité. Ces vins à la robe profonde et brillante dégagent des arômes d'épices, de prune et de mûre.
 </t>
         </is>
       </c>
